--- a/doc/bbs接口.xlsx
+++ b/doc/bbs接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="640" windowWidth="20560" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="6440" yWindow="380" windowWidth="20560" windowHeight="17580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
   </si>
   <si>
     <t>查询我的项目列表（所有）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,6 +211,46 @@
 os_description
 device_identify
 passwordConfirmation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bbs/api/v1.0/discuss/list.app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bbs/api/v1.0/discuss/create.app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一条discuss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取该项目底下所有discuss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,16 +656,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="25.83203125" customWidth="1"/>
@@ -686,7 +722,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -771,7 +807,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45">
@@ -788,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -802,10 +838,44 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
